--- a/resources/Lecture 24.xlsx
+++ b/resources/Lecture 24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anmol Pahwa\OneDrive - IIT-Madras(IC&amp;SR)\Academia\IIT Madras\Teaching\CE5972\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473AB41D-9499-4614-8782-18C887534910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35908" documentId="13_ncr:1_{473AB41D-9499-4614-8782-18C887534910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FEE1801-C8F1-4F47-9C5F-AFC7B3BE9346}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{62CB80FF-E0D7-4B5D-A842-DDDB899F1514}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{62CB80FF-E0D7-4B5D-A842-DDDB899F1514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$3:$B$5</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$C$3:$E$5</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$C$3:$E$5</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$E$3:$E$5</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$E$3:$E$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -43,11 +45,15 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$12:$B$19</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$21</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$B$3:$B$5</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Sheet1!$B$3:$B$5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -116,9 +122,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,21 +508,21 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -553,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -587,23 +590,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f>B3 * (75 * 10^(7) + 6 * 10^5 * C3 + (143920 + 7196 * E3) * D3 * C3) + B4 * (75 * 10^(7) + 6 * 10^5 * C4 + (719600 + 7196 * E4) * D4 * C4) + B5 * (75 * 10^(7) + 6 * 10^5 * C5 + (2878400 + 7196 * E5) * D5 * C5)</f>
         <v>1021056000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -611,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>D3</f>
         <v>0</v>
@@ -620,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>D4</f>
         <v>0</v>
@@ -629,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>D5</f>
         <v>3</v>
@@ -638,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f>E3</f>
         <v>0</v>
@@ -647,7 +650,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>E4</f>
         <v>0</v>
@@ -656,7 +659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>E5</f>
         <v>200</v>
@@ -665,7 +668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>E3 * D3 * C3</f>
         <v>0</v>
@@ -674,7 +677,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A20" si="0">E4 * D4 * C4</f>
         <v>0</v>
@@ -683,7 +686,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -692,7 +695,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>E3 * D3 * C3 * B3 + E4 * D4 * C4 * B4 + E5 * D5 * C5 * B5</f>
         <v>12000</v>
